--- a/pred_ohlcv/54_21/2020-01-11 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 QTUM ohlcv.xlsx
@@ -1614,7 +1614,7 @@
         <v>-3386.198899999999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-3601.956290399998</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-4357.312790399998</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-7194.365555569997</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-7460.651455569997</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-7495.880355569997</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-7470.544155569997</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-7404.135655569997</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-7488.823655569997</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-6245.023655569997</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-6085.593655569996</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-6085.593655569996</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-5603.593655569996</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-5603.593655569996</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-5603.593655569996</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-6985.949155569996</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-6985.949155569996</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-4337.680865959996</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-4528.472165959995</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-4528.472165959995</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-4825.099765959995</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-4823.559670369995</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-4911.431570369995</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-4881.223670369995</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-4881.223670369995</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-5581.316470369995</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-5510.653370369995</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-4928.459270369995</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-4928.459270369995</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-4928.459270369995</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-4295.262870369996</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-4293.514870369996</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-4318.500570369996</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-4318.500570369996</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-4179.474670369997</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-31050.12337037</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-30418.62927037</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-30418.62927037</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-30345.40337037</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-30594.51817037</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-31864.74177037</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-31862.74177037</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-31915.47357037</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-31915.47357037</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-35665.60227037</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-64065.25674366</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-68628.48344366001</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-68772.74454366001</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-68772.74454366001</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-68818.08454366001</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-68860.90254366001</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-69071.68414366001</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-68441.43424365998</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-68441.43424365998</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-68378.68724365998</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-68955.99404365997</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-65240.32631129996</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-65247.73661129997</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-65247.73661129997</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-65250.62461129997</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-65250.62461129997</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-66436.95591129997</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-66095.07541129997</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-65182.37141129997</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-65235.17771129997</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-61273.02321129997</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-61278.88491129997</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-61278.88491129997</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-61278.88491129997</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-61273.88491129997</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-61579.28991129997</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-61833.40891129997</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-61003.59891129997</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-61003.59891129997</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-60608.28681129997</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-55763.99381129997</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-55522.90301129998</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-56328.44184274997</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-56328.44184274997</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-56328.44184274997</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-68765.11574274997</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-68765.11574274997</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-68765.11574274997</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-68607.05594274997</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-69015.69334274998</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-71085.59664274998</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-71987.27894274998</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-73297.51744274999</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-73487.41744274998</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-73848.19314274998</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-73427.47354274998</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-73427.47354274998</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-73427.47354274998</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-73427.47354274998</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-73567.31934274998</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-73775.50164274998</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-73110.36774274998</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-73110.36774274998</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-72402.86774274998</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-74664.82354274997</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-74638.60044274997</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-74656.60044274997</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-76373.60044274997</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-76373.60044274997</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-76435.94234274997</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-76868.46144274998</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-77038.56804274998</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-77587.54694274998</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 QTUM ohlcv.xlsx
@@ -1614,7 +1614,7 @@
         <v>-3386.198899999999</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-3601.956290399998</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-4357.312790399998</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-7194.365555569997</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-7460.651455569997</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-7495.880355569997</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-7470.544155569997</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-7404.135655569997</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-7488.823655569997</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-6245.023655569997</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-6085.593655569996</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-6085.593655569996</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-5603.593655569996</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-5603.593655569996</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-5603.593655569996</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-6985.949155569996</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-6985.949155569996</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-4337.680865959996</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-4528.472165959995</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-4528.472165959995</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-4825.099765959995</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-4823.559670369995</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-4911.431570369995</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-4881.223670369995</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-4881.223670369995</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-5581.316470369995</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-5510.653370369995</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-4928.459270369995</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-4928.459270369995</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-4928.459270369995</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-4295.262870369996</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-4293.514870369996</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-4318.500570369996</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-4318.500570369996</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-4179.474670369997</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-31050.12337037</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-30418.62927037</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-30418.62927037</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-30418.62927037</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-30345.40337037</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-30594.51817037</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-31864.74177037</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-31862.74177037</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-31915.47357037</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-31915.47357037</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-35665.60227037</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-64065.25674366</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-68628.48344366001</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-68772.74454366001</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-68772.74454366001</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-68818.08454366001</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-68860.90254366001</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-68441.43424365998</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-68441.43424365998</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-68378.68724365998</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-68447.49934365998</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-68265.21294365998</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-68264.61294365997</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-68955.99404365997</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-65240.32631129996</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-65247.73661129997</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-65247.73661129997</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-65250.62461129997</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-65250.62461129997</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-66436.95591129997</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-66095.07541129997</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-65182.37141129997</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-65235.17771129997</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-61273.02321129997</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-61278.88491129997</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-61278.88491129997</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-61278.88491129997</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-61273.88491129997</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-61579.28991129997</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-61833.40891129997</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-61003.59891129997</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-61003.59891129997</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-60608.28681129997</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-55763.99381129997</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-55522.90301129998</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-56571.89764274997</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-56328.44184274997</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-56328.44184274997</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-56328.44184274997</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-68765.11574274997</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-68765.11574274997</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-68765.11574274997</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-68607.05594274997</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-69015.69334274998</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-71085.59664274998</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-71987.27894274998</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-73297.51744274999</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
